--- a/DataVisProject.xlsx
+++ b/DataVisProject.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COURSES\Vis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\VisProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,17 +334,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,11 +624,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1424991952"/>
-        <c:axId val="-1424991408"/>
+        <c:axId val="-1905263216"/>
+        <c:axId val="-1905262672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1424991952"/>
+        <c:axId val="-1905263216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1424991408"/>
+        <c:crossAx val="-1905262672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -679,7 +679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1424991408"/>
+        <c:axId val="-1905262672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1424991952"/>
+        <c:crossAx val="-1905263216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,11 +1100,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1189406976"/>
-        <c:axId val="-1189400992"/>
+        <c:axId val="-1905259952"/>
+        <c:axId val="-1905258864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1189406976"/>
+        <c:axId val="-1905259952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1189400992"/>
+        <c:crossAx val="-1905258864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1155,7 +1155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1189400992"/>
+        <c:axId val="-1905258864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1189406976"/>
+        <c:crossAx val="-1905259952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2719,14 +2719,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N1" s="25"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="26" t="s">
         <v>31</v>
       </c>
@@ -2738,16 +2738,16 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N2" s="19"/>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2996,10 +2996,10 @@
       <c r="P14" s="4">
         <v>327</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="25">
         <v>0.30499999999999999</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="25">
         <v>0.378</v>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3033,55 +3033,55 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="21"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="22" t="s">
         <v>35</v>
       </c>
     </row>
